--- a/Tables/Sources/gameplay/Facility/FacilityBattleship.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBattleship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -252,23 +252,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +281,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -289,9 +297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,9 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,18 +328,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,11 +344,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,15 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +618,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -629,6 +638,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,33 +701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -704,162 +715,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,9 +1241,9 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1405,8 +1405,8 @@
         <v>23</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>H5&amp;"|"&amp;I5&amp;";"&amp;J5&amp;"|"&amp;K5&amp;L5&amp;"|"&amp;M5</f>
-        <v>ATK|0.1;HP|0.1Armor|0.1</v>
+        <f>H5&amp;"|"&amp;I5&amp;";"&amp;J5&amp;"|"&amp;K5&amp;";"&amp;L5&amp;"|"&amp;M5</f>
+        <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -1448,8 +1448,8 @@
         <v>23</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>H6&amp;"|"&amp;I6&amp;";"&amp;J6&amp;"|"&amp;K6&amp;L6&amp;"|"&amp;M6</f>
-        <v>ATK|1.1;HP|1.1Armor|1.1</v>
+        <f>H6&amp;"|"&amp;I6&amp;";"&amp;J6&amp;"|"&amp;K6&amp;";"&amp;L6&amp;"|"&amp;M6</f>
+        <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1491,8 +1491,8 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>H7&amp;"|"&amp;I7&amp;";"&amp;J7&amp;"|"&amp;K7&amp;L7&amp;"|"&amp;M7</f>
-        <v>ATK|2.1;HP|2.1Armor|2.1</v>
+        <f>H7&amp;"|"&amp;I7&amp;";"&amp;J7&amp;"|"&amp;K7&amp;";"&amp;L7&amp;"|"&amp;M7</f>
+        <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
@@ -1534,8 +1534,8 @@
         <v>23</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>H8&amp;"|"&amp;I8&amp;";"&amp;J8&amp;"|"&amp;K8&amp;L8&amp;"|"&amp;M8</f>
-        <v>ATK|3.1;HP|3.1Armor|3.1</v>
+        <f>H8&amp;"|"&amp;I8&amp;";"&amp;J8&amp;"|"&amp;K8&amp;";"&amp;L8&amp;"|"&amp;M8</f>
+        <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>24</v>
@@ -1577,8 +1577,8 @@
         <v>23</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>H9&amp;"|"&amp;I9&amp;";"&amp;J9&amp;"|"&amp;K9&amp;L9&amp;"|"&amp;M9</f>
-        <v>ATK|4.1;HP|4.1Armor|4.1</v>
+        <f>H9&amp;"|"&amp;I9&amp;";"&amp;J9&amp;"|"&amp;K9&amp;";"&amp;L9&amp;"|"&amp;M9</f>
+        <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>24</v>
@@ -1614,8 +1614,8 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="2" t="str">
-        <f>H10&amp;"|"&amp;I10&amp;";"&amp;J10&amp;"|"&amp;K10&amp;L10&amp;"|"&amp;M10</f>
-        <v>ATK|5.1;HP|5.1Armor|5.1</v>
+        <f>H10&amp;"|"&amp;I10&amp;";"&amp;J10&amp;"|"&amp;K10&amp;";"&amp;L10&amp;"|"&amp;M10</f>
+        <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>24</v>
@@ -1651,15 +1651,15 @@
         <v>32</v>
       </c>
       <c r="E11" s="3">
-        <f>E5+1</f>
+        <f t="shared" ref="E11:E16" si="2">E5+1</f>
         <v>2</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" ref="G11:G40" si="2">H11&amp;"|"&amp;I11&amp;";"&amp;J11&amp;"|"&amp;K11&amp;L11&amp;"|"&amp;M11</f>
-        <v>ATK|0.1;HP|0.1Armor|0.1</v>
+        <f>H11&amp;"|"&amp;I11&amp;";"&amp;J11&amp;"|"&amp;K11&amp;";"&amp;L11&amp;"|"&amp;M11</f>
+        <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>24</v>
@@ -1695,15 +1695,15 @@
         <v>33</v>
       </c>
       <c r="E12" s="3">
-        <f>E6+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|1.1;HP|1.1Armor|1.1</v>
+        <f t="shared" ref="G12:G40" si="3">H12&amp;"|"&amp;I12&amp;";"&amp;J12&amp;"|"&amp;K12&amp;";"&amp;L12&amp;"|"&amp;M12</f>
+        <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>24</v>
@@ -1739,15 +1739,15 @@
         <v>34</v>
       </c>
       <c r="E13" s="3">
-        <f>E7+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|2.1;HP|2.1Armor|2.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>24</v>
@@ -1783,15 +1783,15 @@
         <v>35</v>
       </c>
       <c r="E14" s="3">
-        <f>E8+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|3.1;HP|3.1Armor|3.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1827,15 +1827,15 @@
         <v>36</v>
       </c>
       <c r="E15" s="3">
-        <f>E9+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|4.1;HP|4.1Armor|4.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>24</v>
@@ -1867,13 +1867,13 @@
         <v>37</v>
       </c>
       <c r="E16" s="3">
-        <f>E10+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|5.1;HP|5.1Armor|5.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>24</v>
@@ -1899,7 +1899,7 @@
         <v>110301</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" ref="B17:B21" si="3">A18</f>
+        <f t="shared" ref="B17:B21" si="4">A18</f>
         <v>110302</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1909,15 +1909,15 @@
         <v>38</v>
       </c>
       <c r="E17" s="2">
-        <f>E11+5</f>
+        <f t="shared" ref="E17:E23" si="5">E11+5</f>
         <v>7</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|0.1;HP|0.1Armor|0.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>24</v>
@@ -1943,7 +1943,7 @@
         <v>110302</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110303</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1953,15 +1953,15 @@
         <v>39</v>
       </c>
       <c r="E18" s="2">
-        <f>E12+5</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|1.1;HP|1.1Armor|1.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>24</v>
@@ -1987,7 +1987,7 @@
         <v>110303</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110304</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1997,15 +1997,15 @@
         <v>40</v>
       </c>
       <c r="E19" s="2">
-        <f>E13+5</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|2.1;HP|2.1Armor|2.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>24</v>
@@ -2031,7 +2031,7 @@
         <v>110304</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110305</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2041,15 +2041,15 @@
         <v>41</v>
       </c>
       <c r="E20" s="2">
-        <f>E14+5</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|3.1;HP|3.1Armor|3.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>24</v>
@@ -2075,7 +2075,7 @@
         <v>110305</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110306</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2085,15 +2085,15 @@
         <v>42</v>
       </c>
       <c r="E21" s="2">
-        <f>E15+5</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|4.1;HP|4.1Armor|4.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>24</v>
@@ -2125,13 +2125,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="2">
-        <f>E16+5</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|5.1;HP|5.1Armor|5.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>24</v>
@@ -2157,7 +2157,7 @@
         <v>110401</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" ref="B23:B27" si="4">A23</f>
+        <f t="shared" ref="B23:B27" si="6">A23</f>
         <v>110401</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2167,15 +2167,15 @@
         <v>44</v>
       </c>
       <c r="E23" s="3">
-        <f>E17+5</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|0.1;HP|0.1Armor|0.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>24</v>
@@ -2201,7 +2201,7 @@
         <v>110402</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>110402</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2211,15 +2211,15 @@
         <v>45</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" ref="E24:E40" si="5">E18+5</f>
+        <f t="shared" ref="E24:E40" si="7">E18+5</f>
         <v>12</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|1.1;HP|1.1Armor|1.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>24</v>
@@ -2245,7 +2245,7 @@
         <v>110403</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>110403</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2255,15 +2255,15 @@
         <v>46</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|2.1;HP|2.1Armor|2.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>24</v>
@@ -2289,7 +2289,7 @@
         <v>110404</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>110404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2299,15 +2299,15 @@
         <v>47</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|3.1;HP|3.1Armor|3.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>24</v>
@@ -2333,7 +2333,7 @@
         <v>110405</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>110405</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2343,15 +2343,15 @@
         <v>48</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|4.1;HP|4.1Armor|4.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>24</v>
@@ -2383,13 +2383,13 @@
         <v>49</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|5.1;HP|5.1Armor|5.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>24</v>
@@ -2415,7 +2415,7 @@
         <v>110501</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" ref="B29:B33" si="6">A30</f>
+        <f t="shared" ref="B29:B33" si="8">A30</f>
         <v>110502</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2425,15 +2425,15 @@
         <v>50</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|0.1;HP|0.1Armor|0.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>24</v>
@@ -2459,7 +2459,7 @@
         <v>110502</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>110503</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2469,15 +2469,15 @@
         <v>51</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|1.1;HP|1.1Armor|1.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>24</v>
@@ -2503,7 +2503,7 @@
         <v>110503</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>110504</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2513,15 +2513,15 @@
         <v>52</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|2.1;HP|2.1Armor|2.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>24</v>
@@ -2547,7 +2547,7 @@
         <v>110504</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>110505</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2557,15 +2557,15 @@
         <v>53</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|3.1;HP|3.1Armor|3.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>24</v>
@@ -2591,7 +2591,7 @@
         <v>110505</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>110506</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2601,15 +2601,15 @@
         <v>54</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|4.1;HP|4.1Armor|4.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>24</v>
@@ -2641,13 +2641,13 @@
         <v>55</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|5.1;HP|5.1Armor|5.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>24</v>
@@ -2673,7 +2673,7 @@
         <v>110601</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" ref="B35:B39" si="7">A35</f>
+        <f t="shared" ref="B35:B39" si="9">A35</f>
         <v>110601</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2683,15 +2683,15 @@
         <v>56</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|0.1;HP|0.1Armor|0.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>24</v>
@@ -2717,7 +2717,7 @@
         <v>110602</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110602</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2727,15 +2727,15 @@
         <v>57</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|1.1;HP|1.1Armor|1.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>24</v>
@@ -2761,7 +2761,7 @@
         <v>110603</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110603</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -2771,15 +2771,15 @@
         <v>58</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|2.1;HP|2.1Armor|2.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>24</v>
@@ -2805,7 +2805,7 @@
         <v>110604</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110604</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2815,15 +2815,15 @@
         <v>59</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|3.1;HP|3.1Armor|3.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>24</v>
@@ -2849,7 +2849,7 @@
         <v>110605</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110605</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2859,15 +2859,15 @@
         <v>60</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|4.1;HP|4.1Armor|4.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>24</v>
@@ -2899,13 +2899,13 @@
         <v>61</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ATK|5.1;HP|5.1Armor|5.1</v>
+        <f t="shared" si="3"/>
+        <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>24</v>

--- a/Tables/Sources/gameplay/Facility/FacilityBattleship.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityBattleship.xlsx
@@ -210,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -239,6 +239,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -260,53 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -321,10 +305,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,16 +336,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +368,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,14 +376,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,15 +614,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,26 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -682,6 +653,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,16 +704,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,9 +1241,9 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1405,7 +1405,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>H5&amp;"|"&amp;I5&amp;";"&amp;J5&amp;"|"&amp;K5&amp;";"&amp;L5&amp;"|"&amp;M5</f>
+        <f t="shared" ref="G5:G11" si="1">H5&amp;"|"&amp;I5&amp;";"&amp;J5&amp;"|"&amp;K5&amp;";"&amp;L5&amp;"|"&amp;M5</f>
         <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1448,7 +1448,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>H6&amp;"|"&amp;I6&amp;";"&amp;J6&amp;"|"&amp;K6&amp;";"&amp;L6&amp;"|"&amp;M6</f>
+        <f t="shared" si="1"/>
         <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1491,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>H7&amp;"|"&amp;I7&amp;";"&amp;J7&amp;"|"&amp;K7&amp;";"&amp;L7&amp;"|"&amp;M7</f>
+        <f t="shared" si="1"/>
         <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1534,7 +1534,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>H8&amp;"|"&amp;I8&amp;";"&amp;J8&amp;"|"&amp;K8&amp;";"&amp;L8&amp;"|"&amp;M8</f>
+        <f t="shared" si="1"/>
         <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1577,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>H9&amp;"|"&amp;I9&amp;";"&amp;J9&amp;"|"&amp;K9&amp;";"&amp;L9&amp;"|"&amp;M9</f>
+        <f t="shared" si="1"/>
         <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="2" t="str">
-        <f>H10&amp;"|"&amp;I10&amp;";"&amp;J10&amp;"|"&amp;K10&amp;";"&amp;L10&amp;"|"&amp;M10</f>
+        <f t="shared" si="1"/>
         <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1641,8 +1641,8 @@
         <v>110201</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ref="B11:B15" si="1">A11</f>
-        <v>110201</v>
+        <f>A12</f>
+        <v>110202</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>32</v>
@@ -1658,7 +1658,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f>H11&amp;"|"&amp;I11&amp;";"&amp;J11&amp;"|"&amp;K11&amp;";"&amp;L11&amp;"|"&amp;M11</f>
+        <f t="shared" si="1"/>
         <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1685,8 +1685,8 @@
         <v>110202</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
-        <v>110202</v>
+        <f t="shared" ref="B12:B21" si="3">A13</f>
+        <v>110203</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>33</v>
@@ -1702,7 +1702,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" ref="G12:G40" si="3">H12&amp;"|"&amp;I12&amp;";"&amp;J12&amp;"|"&amp;K12&amp;";"&amp;L12&amp;"|"&amp;M12</f>
+        <f t="shared" ref="G12:G40" si="4">H12&amp;"|"&amp;I12&amp;";"&amp;J12&amp;"|"&amp;K12&amp;";"&amp;L12&amp;"|"&amp;M12</f>
         <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1729,8 +1729,8 @@
         <v>110203</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
-        <v>110203</v>
+        <f t="shared" si="3"/>
+        <v>110204</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>34</v>
@@ -1746,7 +1746,7 @@
         <v>23</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1773,8 +1773,8 @@
         <v>110204</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
-        <v>110204</v>
+        <f t="shared" si="3"/>
+        <v>110205</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
@@ -1790,7 +1790,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1817,8 +1817,8 @@
         <v>110205</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
-        <v>110205</v>
+        <f t="shared" si="3"/>
+        <v>110206</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>36</v>
@@ -1834,7 +1834,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1899,7 +1899,7 @@
         <v>110301</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" ref="B17:B21" si="4">A18</f>
+        <f t="shared" si="3"/>
         <v>110302</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1916,7 +1916,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -1943,7 +1943,7 @@
         <v>110302</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110303</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1960,7 +1960,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1987,7 +1987,7 @@
         <v>110303</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110304</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2004,7 +2004,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -2031,7 +2031,7 @@
         <v>110304</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110305</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2048,7 +2048,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -2075,7 +2075,7 @@
         <v>110305</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110306</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2092,7 +2092,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -2157,8 +2157,8 @@
         <v>110401</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" ref="B23:B27" si="6">A23</f>
-        <v>110401</v>
+        <f t="shared" ref="B23:B27" si="6">A24</f>
+        <v>110402</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>44</v>
@@ -2174,7 +2174,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" si="6"/>
-        <v>110402</v>
+        <v>110403</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>45</v>
@@ -2218,7 +2218,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="6"/>
-        <v>110403</v>
+        <v>110404</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
@@ -2262,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="6"/>
-        <v>110404</v>
+        <v>110405</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>47</v>
@@ -2306,7 +2306,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="6"/>
-        <v>110405</v>
+        <v>110406</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>48</v>
@@ -2350,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -2432,7 +2432,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -2476,7 +2476,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -2520,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -2564,7 +2564,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2608,7 +2608,7 @@
         <v>23</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -2673,8 +2673,8 @@
         <v>110601</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" ref="B35:B39" si="9">A35</f>
-        <v>110601</v>
+        <f t="shared" ref="B35:B39" si="9">A36</f>
+        <v>110602</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>56</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|0.1;HP|0.1;Armor|0.1</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" si="9"/>
-        <v>110602</v>
+        <v>110603</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>57</v>
@@ -2734,7 +2734,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|1.1;HP|1.1;Armor|1.1</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" si="9"/>
-        <v>110603</v>
+        <v>110604</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>58</v>
@@ -2778,7 +2778,7 @@
         <v>23</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|2.1;HP|2.1;Armor|2.1</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" si="9"/>
-        <v>110604</v>
+        <v>110605</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>59</v>
@@ -2822,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|3.1;HP|3.1;Armor|3.1</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" si="9"/>
-        <v>110605</v>
+        <v>110606</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>60</v>
@@ -2866,7 +2866,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|4.1;HP|4.1;Armor|4.1</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ATK|5.1;HP|5.1;Armor|5.1</v>
       </c>
       <c r="H40" s="3" t="s">
